--- a/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -233,8 +233,59 @@
     <t>transport_truck_using_diesel.converter.ad</t>
   </si>
   <si>
+    <t>Fixed operational and maintenance</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno</t>
+  </si>
+  <si>
+    <t>cedelft</t>
+  </si>
+  <si>
+    <t>Fixed operational and maintenance costs include: Maintenance and repair as well as tire  cost</t>
+  </si>
+  <si>
+    <t>http://www.theicct.org/sites/default/files/publications/CE_Delft_4841_Zero_emissions_trucks_Def.pdf</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno, cedelft</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subject year</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>p.87</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>p.85</t>
+  </si>
+  <si>
+    <t>p.92</t>
+  </si>
+  <si>
+    <t>euro/yr</t>
+  </si>
+  <si>
+    <t>ETM Library URL</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1934</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1928</t>
+  </si>
+  <si>
     <r>
-      <t>output.</t>
+      <t>output</t>
     </r>
     <r>
       <rPr>
@@ -244,79 +295,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>not</t>
+      <t>.truck_kms</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defined</t>
-    </r>
-  </si>
-  <si>
-    <t>Fixed operational and maintenance</t>
-  </si>
-  <si>
-    <t>cedelft-ecn-tno</t>
-  </si>
-  <si>
-    <t>cedelft</t>
-  </si>
-  <si>
-    <t>Fixed operational and maintenance costs include: Maintenance and repair as well as tire  cost</t>
-  </si>
-  <si>
-    <t>http://www.theicct.org/sites/default/files/publications/CE_Delft_4841_Zero_emissions_trucks_Def.pdf</t>
-  </si>
-  <si>
-    <t>cedelft-ecn-tno, cedelft</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Subject year</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>p.87</t>
-  </si>
-  <si>
-    <t>yr</t>
-  </si>
-  <si>
-    <t>p.85</t>
-  </si>
-  <si>
-    <t>p.92</t>
-  </si>
-  <si>
-    <t>euro/yr</t>
-  </si>
-  <si>
-    <t>ETM Library URL</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1934</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1928</t>
   </si>
 </sst>
 </file>
@@ -324,8 +304,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1122,7 +1102,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1131,7 +1111,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1183,14 +1163,14 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1199,40 +1179,40 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2140,7 +2120,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2326,8 +2306,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2446,14 +2426,14 @@
     </row>
     <row r="11" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="19"/>
-      <c r="C11" s="89" t="s">
-        <v>56</v>
+      <c r="C11" s="114" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="29">
-        <v>0.3</v>
+        <v>0.409500409500409</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -2506,8 +2486,8 @@
         <v>6</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="105" t="s">
-        <v>62</v>
+      <c r="I14" s="104" t="s">
+        <v>61</v>
       </c>
       <c r="J14" s="83"/>
     </row>
@@ -2529,7 +2509,7 @@
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="83"/>
     </row>
@@ -2574,8 +2554,8 @@
         <v>29</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="107" t="s">
-        <v>58</v>
+      <c r="I18" s="106" t="s">
+        <v>57</v>
       </c>
       <c r="J18" s="83"/>
     </row>
@@ -2714,15 +2694,15 @@
       </c>
       <c r="H4" s="88"/>
       <c r="I4" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="88"/>
       <c r="K4" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="88"/>
       <c r="M4" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1">
@@ -2767,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="47"/>
-      <c r="I7" s="106"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="44"/>
       <c r="K7" s="51">
         <f>Notes!C12</f>
@@ -2831,7 +2811,7 @@
         <v>98300</v>
       </c>
       <c r="L10" s="44"/>
-      <c r="M10" s="90"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1">
       <c r="B11" s="43"/>
@@ -2855,8 +2835,8 @@
       <c r="J11" s="44"/>
       <c r="K11" s="47"/>
       <c r="L11" s="44"/>
-      <c r="M11" s="90" t="s">
-        <v>60</v>
+      <c r="M11" s="89" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2883,32 +2863,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="91" customWidth="1"/>
-    <col min="2" max="2" width="4" style="91" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="91" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="91" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="91" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="92" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="92" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="91" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="91"/>
+    <col min="1" max="1" width="3.25" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4" style="90" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="90" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="90" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="90" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="91" customWidth="1"/>
+    <col min="9" max="9" width="32.75" style="91" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="90" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="96"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2916,23 +2896,23 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="100"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="77" t="s">
         <v>17</v>
       </c>
@@ -2946,137 +2926,137 @@
         <v>18</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="101" t="s">
-        <v>71</v>
+      <c r="I5" s="100" t="s">
+        <v>70</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="96"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="96"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="98" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="97">
         <v>2013</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="97">
         <v>2012</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="114" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="95"/>
+      <c r="C8" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="95"/>
+      <c r="C9" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="95"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="95"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="97">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="97">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="97"/>
+      <c r="I11" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="113" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="96"/>
-      <c r="C8" s="104" t="s">
+      <c r="J11" s="97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="95"/>
+      <c r="C12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="96"/>
-      <c r="C9" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="96"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="96"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="98">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="98">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="96"/>
-      <c r="C12" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="96"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3099,26 +3079,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="108" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="108" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="108"/>
-    <col min="11" max="11" width="10" style="108" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="108"/>
+    <col min="1" max="1" width="5.625" style="107" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="107" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="107" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="107"/>
+    <col min="11" max="11" width="10" style="107" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1">
       <c r="B3" s="76"/>
@@ -3126,7 +3106,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -3137,742 +3117,742 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="111"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="110"/>
+      <c r="C7" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="110"/>
+      <c r="C12" s="111">
+        <v>12</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="110"/>
+      <c r="C22" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="110"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="110"/>
+      <c r="C29" s="111">
+        <v>98300</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="110"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="110"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="110"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="110"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="110"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="110"/>
+      <c r="C41" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="111"/>
-      <c r="C12" s="112">
-        <v>12</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112" t="s">
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="110"/>
+      <c r="C42" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="111"/>
-      <c r="C29" s="112">
-        <v>98300</v>
-      </c>
-      <c r="D29" s="112" t="s">
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="110"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="110"/>
+      <c r="C47" s="111">
+        <v>74052</v>
+      </c>
+      <c r="D47" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="111"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="111"/>
-      <c r="C41" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="111"/>
-      <c r="C42" s="112" t="s">
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="110"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="110"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="110"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="110"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="110"/>
+      <c r="C54" s="111">
+        <v>3120</v>
+      </c>
+      <c r="D54" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="111"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="111"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="111"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="111"/>
-      <c r="C47" s="112">
-        <v>74052</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="111"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="111"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="111"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="112"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="111"/>
-      <c r="C54" s="112">
-        <v>3120</v>
-      </c>
-      <c r="D54" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="112"/>
-      <c r="K54" s="112"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="111"/>
-      <c r="C55" s="112">
+      <c r="B55" s="110"/>
+      <c r="C55" s="111">
         <v>520</v>
       </c>
-      <c r="D55" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
+      <c r="D55" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="111"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="111"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="111"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="112"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="111"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="111"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="112"/>
-      <c r="K62" s="112"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Source</t>
   </si>
@@ -297,6 +302,21 @@
       </rPr>
       <t>.truck_kms</t>
     </r>
+  </si>
+  <si>
+    <t>MJ/km</t>
+  </si>
+  <si>
+    <t>km/MJ</t>
+  </si>
+  <si>
+    <t>p.66</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1069,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1080,7 +1100,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1239,6 +1258,19 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="245">
@@ -1490,6 +1522,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1525,7 +1562,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1533,6 +1570,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1677,11 +1720,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="12534900"/>
+          <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2122,32 +2203,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2156,7 +2237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -2165,7 +2246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2174,128 +2255,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="62"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="72" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="71"/>
-      <c r="C23" s="75" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="70"/>
+      <c r="C23" s="74" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2306,70 +2382,70 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.25" style="30" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="115" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="32"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2377,33 +2453,33 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:11" s="20" customFormat="1">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77" t="s">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:11" s="20" customFormat="1">
-      <c r="B9" s="19"/>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2411,12 +2487,12 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B10" s="19"/>
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2424,170 +2500,173 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="114" t="s">
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.409500409500409</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29" t="s">
-        <v>27</v>
+      <c r="D11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="28">
+        <f>'Research data'!G7</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="128" t="s">
+        <v>57</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="35"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="34" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36">
-        <f>'Research data'!G10</f>
+      <c r="E14" s="35">
+        <f>'Research data'!G13</f>
         <v>86176</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="104" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="83"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34" t="s">
+      <c r="J14" s="82"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="84">
-        <f>'Research data'!G11</f>
+      <c r="E15" s="83">
+        <f>'Research data'!G14</f>
         <v>3640</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="66" t="s">
+      <c r="H15" s="33"/>
+      <c r="I15" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="83"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-    </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
-      <c r="B17" s="35"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
       <c r="C17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-    </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="36">
-        <f>'Research data'!G7</f>
+      <c r="E18" s="35">
+        <f>'Research data'!G10</f>
         <v>12</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="59" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="106" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="83"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="83"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2627,11 +2706,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2640,86 +2714,86 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="59.125" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="40"/>
+    <col min="1" max="1" width="4.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.1640625" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="2:13" s="20" customFormat="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="88" t="s">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="87" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88" t="s">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="43"/>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2727,126 +2801,168 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51">
-        <f>ROUND(12,0)</f>
-        <v>12</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="51">
-        <f>Notes!C12</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="58"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="43"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
-      <c r="B9" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="126">
+        <f>K7</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="126">
+        <f>Notes!E70</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="M8" s="55"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
-      <c r="B10" s="43"/>
-      <c r="C10" s="87" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <f>ROUND(12,0)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="50">
+        <f>Notes!C12</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="59"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="57" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48">
-        <f>ROUND(AVERAGE(I10,K10),2)</f>
+      <c r="G13" s="47">
+        <f>ROUND(AVERAGE(I13,K13),2)</f>
         <v>86176</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="86">
+      <c r="H13" s="11"/>
+      <c r="I13" s="85">
         <f>Notes!C47</f>
         <v>74052</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="48">
+      <c r="J13" s="43"/>
+      <c r="K13" s="47">
         <f>Notes!C29</f>
         <v>98300</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="89"/>
-    </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
-      <c r="B11" s="43"/>
-      <c r="C11" s="87" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="88"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="85" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G14" s="52">
         <f>ROUND(3640,2)</f>
         <v>3640</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="53">
+      <c r="H14" s="53"/>
+      <c r="I14" s="52">
         <f>Notes!C54+Notes!C55</f>
         <v>3640</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="89" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="88" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2857,38 +2973,38 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="90" customWidth="1"/>
-    <col min="2" max="2" width="4" style="90" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="90" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="90" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="90" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="90" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="91" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="91" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="90"/>
+    <col min="1" max="1" width="3.1640625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="4" style="89" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="89" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="89" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" style="90" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="89" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="95"/>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="92"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="94"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2896,972 +3012,1088 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="95"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="97"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="99"/>
-      <c r="C5" s="77" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="94"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="98"/>
+      <c r="C5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="95"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="94"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="95"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="97" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="94"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="96">
         <v>2013</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="96">
         <v>2012</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="113" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="112" t="s">
+      <c r="J7" s="111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="95"/>
-      <c r="C8" s="103" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="94"/>
+      <c r="C8" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="95"/>
-      <c r="C9" s="101" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="94"/>
+      <c r="C9" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="95"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="95"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="97" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="94"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="94"/>
+      <c r="C11" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="96">
         <v>2013</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="96">
         <v>2012</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="113" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="96" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="95"/>
-      <c r="C12" s="101" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="94"/>
+      <c r="C12" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="95"/>
-      <c r="C13" s="101" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="94"/>
+      <c r="C13" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K62"/>
+  <dimension ref="B1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="107" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="107" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="107" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="107"/>
-    <col min="11" max="11" width="10" style="107" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="107"/>
+    <col min="1" max="1" width="5.6640625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="106" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="106" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="106"/>
+    <col min="11" max="11" width="10" style="106" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-    </row>
-    <row r="3" spans="2:11" s="20" customFormat="1">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="110"/>
-      <c r="C6" s="111" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="110"/>
-      <c r="C7" s="111" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="109"/>
+      <c r="C7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="110"/>
-      <c r="C12" s="111">
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="109"/>
+      <c r="C12" s="110">
         <v>12</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111" t="s">
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="109"/>
+      <c r="C22" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="110"/>
-      <c r="C29" s="111">
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="109"/>
+      <c r="C29" s="110">
         <v>98300</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="110"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="110"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="110"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="110"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="110"/>
-      <c r="C41" s="111" t="s">
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="109"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="109"/>
+      <c r="C41" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="110"/>
-      <c r="C42" s="111" t="s">
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="109"/>
+      <c r="C42" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="110"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="110"/>
-      <c r="C47" s="111">
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="109"/>
+      <c r="C47" s="110">
         <v>74052</v>
       </c>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="111"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="110"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="110"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="110"/>
-      <c r="C54" s="111">
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="109"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="110"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="109"/>
+      <c r="C54" s="110">
         <v>3120</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="110"/>
-      <c r="C55" s="111">
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="109"/>
+      <c r="C55" s="110">
         <v>520</v>
       </c>
-      <c r="D55" s="111" t="s">
+      <c r="D55" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="110"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="110"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="111"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="110"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="111"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="110"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="111"/>
-      <c r="K60" s="111"/>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="110"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="110"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="111"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="109"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="109"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="109"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="109"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="109"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="109"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="109"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="109"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="109"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="109"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="109"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="109"/>
+      <c r="C69" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="106">
+        <v>9.4</v>
+      </c>
+      <c r="F69" s="123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="109"/>
+      <c r="C70" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="106">
+        <f>1/E69</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="F70" s="123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="109"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="109"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="109"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="109"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="109"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="109"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="109"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="109"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="109"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="109"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="109"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="109"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="109"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="109"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="109"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="109"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="109"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="109"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="109"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="109"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="109"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="109"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="109"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="109"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="109"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="109"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>Source</t>
   </si>
@@ -117,12 +112,6 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>initial_investment</t>
-  </si>
-  <si>
-    <t>fixed_operation_and_maintenance_costs_per_year</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
@@ -132,9 +121,6 @@
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technical lifetime </t>
   </si>
   <si>
@@ -196,9 +182,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -253,9 +236,6 @@
     <t>http://www.theicct.org/sites/default/files/publications/CE_Delft_4841_Zero_emissions_trucks_Def.pdf</t>
   </si>
   <si>
-    <t>cedelft-ecn-tno, cedelft</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -327,12 +307,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -821,456 +808,454 @@
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="245">
@@ -1562,7 +1547,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1570,12 +1555,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1762,7 +1741,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2203,50 +2182,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="16"/>
+    <col min="4" max="16384" width="10.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="22" customFormat="1">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2255,123 +2234,128 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="61"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="62"/>
       <c r="C17" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="62"/>
       <c r="C18" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="62"/>
       <c r="C19" s="69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="70"/>
       <c r="C20" s="71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="70"/>
       <c r="C21" s="72" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="70"/>
       <c r="C22" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="70"/>
       <c r="C23" s="74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2380,71 +2364,71 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.125" style="29" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="29"/>
+    <col min="10" max="10" width="3.625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
+    <row r="5" spans="2:10">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16" thickBot="1">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2455,7 +2439,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="19" customFormat="1">
       <c r="B8" s="75"/>
       <c r="C8" s="76" t="s">
         <v>20</v>
@@ -2476,7 +2460,7 @@
       </c>
       <c r="J8" s="78"/>
     </row>
-    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="19" customFormat="1">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2487,10 +2471,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2500,174 +2484,105 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="18"/>
-      <c r="C11" s="113" t="s">
-        <v>73</v>
+      <c r="C11" s="111" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!G7</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="127" t="s">
-        <v>77</v>
+      <c r="G11" s="116" t="s">
+        <v>72</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="128" t="s">
-        <v>57</v>
+      <c r="I11" s="117" t="s">
+        <v>53</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E14" s="35">
-        <f>'Research data'!G13</f>
-        <v>86176</v>
+        <f>'Research data'!G10</f>
+        <v>12</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
-        <v>6</v>
+      <c r="G14" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="103" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J14" s="82"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="83">
-        <f>'Research data'!G14</f>
-        <v>3640</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="G15" s="33"/>
       <c r="H15" s="33"/>
-      <c r="I15" s="65" t="s">
-        <v>57</v>
+      <c r="I15" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="J15" s="82"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="35">
-        <f>'Research data'!G10</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="82"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="82"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
+    <row r="16" spans="2:10" ht="16" thickBot="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2706,6 +2621,11 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2720,26 +2640,26 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="39" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="39" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.1640625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="39"/>
+    <col min="10" max="10" width="2.125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.125" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.625" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16" thickBot="1"/>
+    <row r="3" spans="2:13">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -2753,33 +2673,33 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="19" customFormat="1">
       <c r="B4" s="18"/>
-      <c r="C4" s="87" t="s">
-        <v>51</v>
+      <c r="C4" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87" t="s">
+      <c r="G4" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1">
       <c r="B5" s="42"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -2790,10 +2710,10 @@
       <c r="I5" s="46"/>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2805,31 +2725,31 @@
       <c r="L6" s="43"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="124" t="s">
-        <v>77</v>
+      <c r="C7" s="113" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="126">
+      <c r="F7" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="115">
         <f>K7</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="104"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="126">
+      <c r="K7" s="115">
         <f>Notes!E70</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="42"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -2840,7 +2760,7 @@
       <c r="I8" s="46"/>
       <c r="M8" s="55"/>
     </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16" thickBot="1">
       <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -2856,7 +2776,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16" thickBot="1">
       <c r="B10" s="42"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -2871,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="46"/>
-      <c r="I10" s="104"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="43"/>
       <c r="K10" s="50">
         <f>Notes!C12</f>
@@ -2880,7 +2800,7 @@
       <c r="L10" s="43"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="42"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2894,9 +2814,9 @@
       <c r="L11" s="43"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16" thickBot="1">
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2909,9 +2829,9 @@
       <c r="L12" s="43"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="86" t="s">
-        <v>53</v>
+    <row r="13" spans="2:13" ht="16" thickBot="1">
+      <c r="C13" s="85" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2923,7 +2843,7 @@
         <v>86176</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="85">
+      <c r="I13" s="84">
         <f>Notes!C47</f>
         <v>74052</v>
       </c>
@@ -2933,16 +2853,16 @@
         <v>98300</v>
       </c>
       <c r="L13" s="43"/>
-      <c r="M13" s="88"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="86" t="s">
-        <v>54</v>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="2:13" ht="16" thickBot="1">
+      <c r="C14" s="85" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
-      <c r="F14" s="84" t="s">
-        <v>26</v>
+      <c r="F14" s="83" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="52">
         <f>ROUND(3640,2)</f>
@@ -2956,13 +2876,18 @@
       <c r="J14" s="43"/>
       <c r="K14" s="46"/>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
-        <v>59</v>
+      <c r="M14" s="87" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2973,38 +2898,38 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="4" style="89" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="89" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="89" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="90" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="90" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="89" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="89"/>
+    <col min="1" max="1" width="3.125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="4" style="88" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="88" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="88" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="88" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="88" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="94"/>
+    <row r="1" spans="2:10" ht="16" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="93"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3012,23 +2937,23 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="94"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="96"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="95"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="97"/>
       <c r="C5" s="76" t="s">
         <v>17</v>
       </c>
@@ -3042,143 +2967,148 @@
         <v>18</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>70</v>
+      <c r="I5" s="98" t="s">
+        <v>65</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="93"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="94"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="96" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="93"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="95">
         <v>2013</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="95">
         <v>2012</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="94"/>
-      <c r="C8" s="102" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="93"/>
+      <c r="C8" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="94"/>
-      <c r="C9" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="94"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="94"/>
-      <c r="C11" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="96" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="93"/>
+      <c r="C9" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="93"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="93"/>
+      <c r="C11" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="95">
         <v>2013</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="95">
         <v>2012</v>
       </c>
-      <c r="H11" s="96"/>
-      <c r="I11" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="94"/>
-      <c r="C12" s="100" t="s">
+      <c r="H11" s="95"/>
+      <c r="I11" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="93"/>
+      <c r="C12" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="94"/>
-      <c r="C13" s="100" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="93"/>
+      <c r="C13" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3190,36 +3120,36 @@
       <selection activeCell="C69" sqref="C69:C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="106" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="106" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="106"/>
-    <col min="11" max="11" width="10" style="106" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="106"/>
+    <col min="1" max="1" width="5.625" style="104" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="104" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="104" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="104"/>
+    <col min="11" max="11" width="10" style="104" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1">
       <c r="B3" s="75"/>
       <c r="C3" s="76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
@@ -3229,871 +3159,876 @@
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110">
+    <row r="4" spans="2:11">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="107"/>
+      <c r="C7" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="107"/>
+      <c r="C12" s="108">
         <v>12</v>
       </c>
-      <c r="D12" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110">
+      <c r="D12" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="107"/>
+      <c r="C29" s="108">
         <v>98300</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
-      <c r="C41" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
-      <c r="C42" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="109"/>
-      <c r="C47" s="110">
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="107"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="107"/>
+      <c r="C41" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="107"/>
+      <c r="C42" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="107"/>
+      <c r="C47" s="108">
         <v>74052</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="109"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="109"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
-      <c r="K50" s="110"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="109"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-      <c r="K52" s="110"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="109"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-      <c r="K53" s="110"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="109"/>
-      <c r="C54" s="110">
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="107"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="107"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="107"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="107"/>
+      <c r="C54" s="108">
         <v>3120</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="107"/>
+      <c r="C55" s="108">
+        <v>520</v>
+      </c>
+      <c r="D55" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="107"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="107"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="107"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="107"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="107"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="107"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="107"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="107"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="107"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="107"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="107"/>
+      <c r="C69" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="104">
+        <v>9.4</v>
+      </c>
+      <c r="F69" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="110"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
-      <c r="K54" s="110"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="109"/>
-      <c r="C55" s="110">
-        <v>520</v>
-      </c>
-      <c r="D55" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
-      <c r="K55" s="110"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="109"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="110"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="109"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="109"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="110"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="110"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="110"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="109"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="110"/>
-      <c r="K61" s="110"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="109"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="110"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="109"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="109"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="109"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="109"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="109"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="109"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="109"/>
-      <c r="C69" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="106">
-        <v>9.4</v>
-      </c>
-      <c r="F69" s="123" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="109"/>
-      <c r="C70" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="106">
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="107"/>
+      <c r="C70" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="104">
         <f>1/E69</f>
         <v>0.10638297872340426</v>
       </c>
-      <c r="F70" s="123" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="109"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="109"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="109"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="109"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="109"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="109"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="109"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="109"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="109"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="109"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="109"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="109"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="109"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="109"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="109"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="109"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="109"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="109"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="109"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="109"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="109"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="109"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="109"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="109"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="109"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="109"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="109"/>
+      <c r="F70" s="112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="107"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="107"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="107"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="107"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="107"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="107"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="107"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="107"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="107"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="107"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="107"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="107"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="107"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="107"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="107"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="107"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="107"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="107"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="107"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="107"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="107"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="107"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="107"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="107"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="107"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="107"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -176,9 +184,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -298,6 +303,10 @@
   <si>
     <t>efficiency</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +316,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,11 +511,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1153,7 +1157,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1169,7 +1173,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1230,31 +1234,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,77 +1519,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>330200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1741,7 +1675,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2182,41 +2116,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="16"/>
+    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2225,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2234,29 +2168,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="61"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="62"/>
       <c r="C10" s="63"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="62" t="s">
         <v>31</v>
@@ -2265,33 +2199,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="62"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="62" t="s">
         <v>36</v>
@@ -2300,49 +2234,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="62"/>
       <c r="C17" s="67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="62"/>
       <c r="C18" s="68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="62"/>
       <c r="C19" s="69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="70"/>
       <c r="C20" s="71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="70"/>
       <c r="C21" s="72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="70"/>
       <c r="C22" s="73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="70"/>
       <c r="C23" s="74" t="s">
         <v>44</v>
@@ -2351,49 +2285,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:O15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="29"/>
+    <col min="1" max="1" width="3.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="119" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C2" s="120"/>
       <c r="D2" s="120"/>
@@ -2401,7 +2330,7 @@
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="122"/>
       <c r="C3" s="123"/>
       <c r="D3" s="123"/>
@@ -2409,7 +2338,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="122"/>
       <c r="C4" s="123"/>
       <c r="D4" s="123"/>
@@ -2417,7 +2346,7 @@
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="125"/>
       <c r="C5" s="126"/>
       <c r="D5" s="126"/>
@@ -2425,10 +2354,10 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2439,7 +2368,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:10" s="19" customFormat="1">
+    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="76" t="s">
         <v>20</v>
@@ -2460,7 +2389,7 @@
       </c>
       <c r="J8" s="78"/>
     </row>
-    <row r="9" spans="2:10" s="19" customFormat="1">
+    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2471,10 +2400,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2484,13 +2413,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!G7</f>
@@ -2498,15 +2427,15 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
       <c r="D12" s="79"/>
@@ -2517,7 +2446,7 @@
       <c r="I12" s="81"/>
       <c r="J12" s="82"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2530,7 +2459,7 @@
       <c r="I13" s="81"/>
       <c r="J13" s="82"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
@@ -2548,11 +2477,11 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="82"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
         <v>22</v>
@@ -2571,7 +2500,7 @@
       </c>
       <c r="J15" s="82"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -2582,50 +2511,13 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>330200</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2640,26 +2532,25 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.125" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="39"/>
+    <col min="1" max="2" width="4.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="59.140625" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -2673,10 +2564,10 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="2:13" s="19" customFormat="1">
+    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2688,18 +2579,18 @@
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -2710,10 +2601,10 @@
       <c r="I5" s="46"/>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2725,15 +2616,15 @@
       <c r="L6" s="43"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
       <c r="F7" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="115">
         <f>K7</f>
@@ -2749,7 +2640,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="42"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -2760,7 +2651,7 @@
       <c r="I8" s="46"/>
       <c r="M8" s="55"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -2776,7 +2667,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -2800,7 +2691,7 @@
       <c r="L10" s="43"/>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="42"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2814,9 +2705,9 @@
       <c r="L11" s="43"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2829,9 +2720,9 @@
       <c r="L12" s="43"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2855,9 +2746,9 @@
       <c r="L13" s="43"/>
       <c r="M13" s="87"/>
     </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
@@ -2877,17 +2768,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="43"/>
       <c r="M14" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2902,22 +2788,22 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="88" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="88" customWidth="1"/>
     <col min="2" max="2" width="4" style="88" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="88" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="88" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="88" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="89" customWidth="1"/>
-    <col min="9" max="9" width="32.625" style="89" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="88" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="88"/>
+    <col min="3" max="3" width="27.85546875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="88" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="88" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="88" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="89" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="89" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="88" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="90"/>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -2928,7 +2814,7 @@
       <c r="I2" s="92"/>
       <c r="J2" s="91"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="93"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -2941,7 +2827,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="93"/>
       <c r="C4" s="95"/>
       <c r="D4" s="95"/>
@@ -2952,7 +2838,7 @@
       <c r="I4" s="96"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="97"/>
       <c r="C5" s="76" t="s">
         <v>17</v>
@@ -2967,19 +2853,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="98" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="93"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2990,11 +2876,11 @@
       <c r="I6" s="94"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="93"/>
       <c r="C7" s="99"/>
       <c r="D7" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="95" t="s">
         <v>7</v>
@@ -3007,13 +2893,13 @@
       </c>
       <c r="H7" s="100"/>
       <c r="I7" s="110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="93"/>
       <c r="C8" s="101" t="s">
         <v>6</v>
@@ -3026,10 +2912,10 @@
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="93"/>
       <c r="C9" s="99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="95"/>
@@ -3039,7 +2925,7 @@
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="93"/>
       <c r="C10" s="99"/>
       <c r="D10" s="95"/>
@@ -3050,13 +2936,13 @@
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="93"/>
       <c r="C11" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="95" t="s">
         <v>7</v>
@@ -3069,13 +2955,13 @@
       </c>
       <c r="H11" s="95"/>
       <c r="I11" s="110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="93"/>
       <c r="C12" s="99" t="s">
         <v>6</v>
@@ -3088,7 +2974,7 @@
       <c r="I12" s="95"/>
       <c r="J12" s="95"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="93"/>
       <c r="C13" s="99" t="s">
         <v>3</v>
@@ -3104,11 +2990,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3120,18 +3001,18 @@
       <selection activeCell="C69" sqref="C69:C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="104" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="104" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="104"/>
+    <col min="1" max="1" width="5.5703125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="104" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="104" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" style="104"/>
     <col min="11" max="11" width="10" style="104" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="104"/>
+    <col min="12" max="16384" width="10.7109375" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="105"/>
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
@@ -3143,13 +3024,13 @@
       <c r="J2" s="106"/>
       <c r="K2" s="106"/>
     </row>
-    <row r="3" spans="2:11" s="19" customFormat="1">
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="75"/>
       <c r="C3" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
@@ -3159,7 +3040,7 @@
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="107"/>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -3171,7 +3052,7 @@
       <c r="J4" s="108"/>
       <c r="K4" s="108"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="107"/>
       <c r="C5" s="108"/>
       <c r="D5" s="108"/>
@@ -3183,10 +3064,10 @@
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="107"/>
       <c r="C6" s="108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
@@ -3197,10 +3078,10 @@
       <c r="J6" s="108"/>
       <c r="K6" s="108"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="107"/>
       <c r="C7" s="108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="108"/>
       <c r="E7" s="108"/>
@@ -3211,7 +3092,7 @@
       <c r="J7" s="108"/>
       <c r="K7" s="108"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="107"/>
       <c r="C8" s="108"/>
       <c r="D8" s="108"/>
@@ -3223,7 +3104,7 @@
       <c r="J8" s="108"/>
       <c r="K8" s="108"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="107"/>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
@@ -3235,7 +3116,7 @@
       <c r="J9" s="108"/>
       <c r="K9" s="108"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="107"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
@@ -3247,7 +3128,7 @@
       <c r="J10" s="108"/>
       <c r="K10" s="108"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="107"/>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
@@ -3259,13 +3140,13 @@
       <c r="J11" s="108"/>
       <c r="K11" s="108"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="107"/>
       <c r="C12" s="108">
         <v>12</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="108"/>
       <c r="F12" s="108"/>
@@ -3275,7 +3156,7 @@
       <c r="J12" s="108"/>
       <c r="K12" s="108"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="107"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
@@ -3287,7 +3168,7 @@
       <c r="J13" s="108"/>
       <c r="K13" s="108"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="107"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
@@ -3299,7 +3180,7 @@
       <c r="J14" s="108"/>
       <c r="K14" s="108"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="107"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
@@ -3311,7 +3192,7 @@
       <c r="J15" s="108"/>
       <c r="K15" s="108"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="107"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
@@ -3323,7 +3204,7 @@
       <c r="J16" s="108"/>
       <c r="K16" s="108"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="107"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -3335,7 +3216,7 @@
       <c r="J17" s="108"/>
       <c r="K17" s="108"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="107"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
@@ -3347,7 +3228,7 @@
       <c r="J18" s="108"/>
       <c r="K18" s="108"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="107"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
@@ -3359,7 +3240,7 @@
       <c r="J19" s="108"/>
       <c r="K19" s="108"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="107"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
@@ -3371,7 +3252,7 @@
       <c r="J20" s="108"/>
       <c r="K20" s="108"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="107"/>
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
@@ -3383,10 +3264,10 @@
       <c r="J21" s="108"/>
       <c r="K21" s="108"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="107"/>
       <c r="C22" s="108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="108"/>
@@ -3397,7 +3278,7 @@
       <c r="J22" s="108"/>
       <c r="K22" s="108"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -3409,7 +3290,7 @@
       <c r="J23" s="108"/>
       <c r="K23" s="108"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="107"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -3421,7 +3302,7 @@
       <c r="J24" s="108"/>
       <c r="K24" s="108"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="107"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -3433,7 +3314,7 @@
       <c r="J25" s="108"/>
       <c r="K25" s="108"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="107"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -3445,7 +3326,7 @@
       <c r="J26" s="108"/>
       <c r="K26" s="108"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="107"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -3457,7 +3338,7 @@
       <c r="J27" s="108"/>
       <c r="K27" s="108"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="107"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -3469,7 +3350,7 @@
       <c r="J28" s="108"/>
       <c r="K28" s="108"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="107"/>
       <c r="C29" s="108">
         <v>98300</v>
@@ -3485,7 +3366,7 @@
       <c r="J29" s="108"/>
       <c r="K29" s="108"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="107"/>
       <c r="C30" s="108"/>
       <c r="D30" s="108"/>
@@ -3497,7 +3378,7 @@
       <c r="J30" s="108"/>
       <c r="K30" s="108"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="107"/>
       <c r="C31" s="108"/>
       <c r="D31" s="108"/>
@@ -3509,7 +3390,7 @@
       <c r="J31" s="108"/>
       <c r="K31" s="108"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
       <c r="D32" s="108"/>
@@ -3521,7 +3402,7 @@
       <c r="J32" s="108"/>
       <c r="K32" s="108"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="107"/>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -3533,7 +3414,7 @@
       <c r="J33" s="108"/>
       <c r="K33" s="108"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="107"/>
       <c r="C34" s="108"/>
       <c r="D34" s="108"/>
@@ -3545,7 +3426,7 @@
       <c r="J34" s="108"/>
       <c r="K34" s="108"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="107"/>
       <c r="C35" s="108"/>
       <c r="D35" s="108"/>
@@ -3557,7 +3438,7 @@
       <c r="J35" s="108"/>
       <c r="K35" s="108"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="107"/>
       <c r="C36" s="108"/>
       <c r="D36" s="108"/>
@@ -3569,7 +3450,7 @@
       <c r="J36" s="108"/>
       <c r="K36" s="108"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="107"/>
       <c r="C37" s="108"/>
       <c r="D37" s="108"/>
@@ -3581,7 +3462,7 @@
       <c r="J37" s="108"/>
       <c r="K37" s="108"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="107"/>
       <c r="C38" s="108"/>
       <c r="D38" s="108"/>
@@ -3593,7 +3474,7 @@
       <c r="J38" s="108"/>
       <c r="K38" s="108"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="107"/>
       <c r="C39" s="108"/>
       <c r="D39" s="108"/>
@@ -3605,7 +3486,7 @@
       <c r="J39" s="108"/>
       <c r="K39" s="108"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="108"/>
@@ -3617,10 +3498,10 @@
       <c r="J40" s="108"/>
       <c r="K40" s="108"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="107"/>
       <c r="C41" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="108"/>
       <c r="E41" s="108"/>
@@ -3631,10 +3512,10 @@
       <c r="J41" s="108"/>
       <c r="K41" s="108"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="107"/>
       <c r="C42" s="108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="108"/>
       <c r="E42" s="108"/>
@@ -3645,7 +3526,7 @@
       <c r="J42" s="108"/>
       <c r="K42" s="108"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="107"/>
       <c r="C43" s="108"/>
       <c r="D43" s="108"/>
@@ -3657,7 +3538,7 @@
       <c r="J43" s="108"/>
       <c r="K43" s="108"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="107"/>
       <c r="C44" s="108"/>
       <c r="D44" s="108"/>
@@ -3669,7 +3550,7 @@
       <c r="J44" s="108"/>
       <c r="K44" s="108"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="107"/>
       <c r="C45" s="108"/>
       <c r="D45" s="108"/>
@@ -3681,7 +3562,7 @@
       <c r="J45" s="108"/>
       <c r="K45" s="108"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="107"/>
       <c r="C46" s="108"/>
       <c r="D46" s="108"/>
@@ -3693,7 +3574,7 @@
       <c r="J46" s="108"/>
       <c r="K46" s="108"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="107"/>
       <c r="C47" s="108">
         <v>74052</v>
@@ -3709,7 +3590,7 @@
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="107"/>
       <c r="C48" s="108"/>
       <c r="D48" s="108"/>
@@ -3721,7 +3602,7 @@
       <c r="J48" s="108"/>
       <c r="K48" s="108"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="107"/>
       <c r="C49" s="108"/>
       <c r="D49" s="108"/>
@@ -3733,7 +3614,7 @@
       <c r="J49" s="108"/>
       <c r="K49" s="108"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="107"/>
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
@@ -3745,7 +3626,7 @@
       <c r="J50" s="108"/>
       <c r="K50" s="108"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="107"/>
       <c r="C51" s="108"/>
       <c r="D51" s="108"/>
@@ -3757,7 +3638,7 @@
       <c r="J51" s="108"/>
       <c r="K51" s="108"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="108"/>
@@ -3769,7 +3650,7 @@
       <c r="J52" s="108"/>
       <c r="K52" s="108"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="107"/>
       <c r="C53" s="108"/>
       <c r="D53" s="108"/>
@@ -3781,13 +3662,13 @@
       <c r="J53" s="108"/>
       <c r="K53" s="108"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="107"/>
       <c r="C54" s="108">
         <v>3120</v>
       </c>
       <c r="D54" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="108"/>
       <c r="F54" s="108"/>
@@ -3797,13 +3678,13 @@
       <c r="J54" s="108"/>
       <c r="K54" s="108"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="107"/>
       <c r="C55" s="108">
         <v>520</v>
       </c>
       <c r="D55" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="108"/>
       <c r="F55" s="108"/>
@@ -3813,7 +3694,7 @@
       <c r="J55" s="108"/>
       <c r="K55" s="108"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="107"/>
       <c r="C56" s="108"/>
       <c r="D56" s="108"/>
@@ -3825,7 +3706,7 @@
       <c r="J56" s="108"/>
       <c r="K56" s="108"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
       <c r="D57" s="108"/>
@@ -3837,7 +3718,7 @@
       <c r="J57" s="108"/>
       <c r="K57" s="108"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="107"/>
       <c r="C58" s="108"/>
       <c r="D58" s="108"/>
@@ -3849,7 +3730,7 @@
       <c r="J58" s="108"/>
       <c r="K58" s="108"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="107"/>
       <c r="C59" s="108"/>
       <c r="D59" s="108"/>
@@ -3861,7 +3742,7 @@
       <c r="J59" s="108"/>
       <c r="K59" s="108"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="107"/>
       <c r="C60" s="108"/>
       <c r="D60" s="108"/>
@@ -3873,7 +3754,7 @@
       <c r="J60" s="108"/>
       <c r="K60" s="108"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="107"/>
       <c r="C61" s="108"/>
       <c r="D61" s="108"/>
@@ -3885,7 +3766,7 @@
       <c r="J61" s="108"/>
       <c r="K61" s="108"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="107"/>
       <c r="C62" s="108"/>
       <c r="D62" s="108"/>
@@ -3897,138 +3778,133 @@
       <c r="J62" s="108"/>
       <c r="K62" s="108"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="107"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="107"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="107"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="107"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="107"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="107"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="107"/>
       <c r="C69" s="112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E69" s="104">
         <v>9.4</v>
       </c>
       <c r="F69" s="112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="107"/>
       <c r="C70" s="112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E70" s="104">
         <f>1/E69</f>
         <v>0.10638297872340426</v>
       </c>
       <c r="F70" s="112" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="107"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="107"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="107"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="107"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="107"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="107"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="107"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="107"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="107"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="107"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="107"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="107"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="107"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="107"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="107"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="107"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="107"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="107"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="107"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="107"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="107"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="107"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="107"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="107"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="107"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="107"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_diesel_mix.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="2900" yWindow="1740" windowWidth="33420" windowHeight="25620" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -274,27 +274,6 @@
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
   <si>
-    <r>
-      <t>output</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.truck_kms</t>
-    </r>
-  </si>
-  <si>
-    <t>MJ/km</t>
-  </si>
-  <si>
-    <t>km/MJ</t>
-  </si>
-  <si>
     <t>p.66</t>
   </si>
   <si>
@@ -306,6 +285,102 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>truck kms</t>
+  </si>
+  <si>
+    <t>mj/km</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>truck tonne kms</t>
+  </si>
+  <si>
+    <t>van kms</t>
+  </si>
+  <si>
+    <t>van tonne kms</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
+  </si>
+  <si>
+    <t>Note: used 2016 data since tonne kms is only available for 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
+  </si>
+  <si>
+    <t>vehicle kms (see below)</t>
+  </si>
+  <si>
+    <t>km/mj</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>Tonne km trucks</t>
+  </si>
+  <si>
+    <t>Vehicle km trucks</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Vehicle km vans</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=82836ned&amp;D1=1-2&amp;D2=0&amp;D3=0&amp;D4=l&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Tonne km vans</t>
   </si>
 </sst>
 </file>
@@ -316,12 +391,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -489,6 +571,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,6 +579,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,6 +587,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,11 +595,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,12 +609,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -812,455 +920,463 @@
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1529,8 +1645,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1566,8 +1682,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -1604,8 +1720,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -1635,15 +1751,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1661,8 +1777,198 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4165600" y="12534900"/>
+          <a:off x="8648700" y="9893300"/>
           <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="23710900"/>
+          <a:ext cx="13512800" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="27254200"/>
+          <a:ext cx="13373100" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8750300" y="13182600"/>
+          <a:ext cx="7823200" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>528864</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15989300" y="15062200"/>
+          <a:ext cx="5050064" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>154697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16268700" y="12357100"/>
+          <a:ext cx="6019800" cy="2707397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,23 +2424,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="16"/>
+    <col min="1" max="1" width="3.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2180,105 +2486,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="59"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="64" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="65" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="67" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="70" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="71" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="70"/>
-      <c r="C23" s="74" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="72" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2295,221 +2601,221 @@
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="29"/>
+    <col min="1" max="1" width="3.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="28" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="30"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="73"/>
+      <c r="C8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="74"/>
+      <c r="G8" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="28">
-        <f>'Research data'!G7</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="116" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="117" t="s">
+      <c r="D11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="27">
+        <f>'Research data'!E7</f>
+        <v>0.65614556139239466</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="35">
-        <f>'Research data'!G10</f>
+      <c r="E14" s="34">
+        <f>'Research data'!E10</f>
         <v>12</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="103" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="82"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="82"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2526,248 +2832,222 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M14"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="59.140625" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="39"/>
+    <col min="1" max="2" width="4.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="59.1640625" style="38" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="86" t="s">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="E4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="84" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="M5" s="55"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="12" t="s">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="113" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="115">
-        <f>K7</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="115">
-        <f>Notes!E70</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="42"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="M8" s="55"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="12" t="s">
+      <c r="D7" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="113">
+        <f>I7</f>
+        <v>0.65614556139239466</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="113">
+        <f>Notes!E94</f>
+        <v>0.65614556139239466</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="49" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="50">
+      <c r="E10" s="49">
         <f>ROUND(12,0)</f>
         <v>12</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="50">
+      <c r="F10" s="45"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="49">
         <f>Notes!C12</f>
         <v>12</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="59"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="85" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="47">
-        <f>ROUND(AVERAGE(I13,K13),2)</f>
+      <c r="E13" s="46">
+        <f>ROUND(AVERAGE(G13,I13),2)</f>
         <v>86176</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="84">
+      <c r="F13" s="10"/>
+      <c r="G13" s="82">
         <f>Notes!C47</f>
         <v>74052</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="47">
+      <c r="H13" s="42"/>
+      <c r="I13" s="46">
         <f>Notes!C29</f>
         <v>98300</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="87"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="85" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="83" t="s">
+      <c r="D14" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="52">
+      <c r="E14" s="50">
         <f>ROUND(3640,2)</f>
         <v>3640</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52">
+      <c r="F14" s="51"/>
+      <c r="G14" s="50">
         <f>Notes!C54+Notes!C55</f>
         <v>3640</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="87" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="85" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2782,210 +3062,290 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="4" style="88" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="88" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="88" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="88" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="89" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="89" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="88" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="88"/>
+    <col min="1" max="1" width="3.1640625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="4" style="86" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="86" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="87" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="87" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="86" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="91"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="93"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="95"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="93"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="93"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="95" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="93">
         <v>2013</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="93">
         <v>2012</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="107" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="93"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="93"/>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="93"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="93"/>
-      <c r="C11" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="95" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="93">
         <v>2013</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="93">
         <v>2012</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="110" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="93" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="15" spans="2:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="117">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="117">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="118" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="86">
+        <v>2016</v>
+      </c>
+      <c r="H17" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="86">
+        <v>2016</v>
+      </c>
+      <c r="H18" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="87" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2995,912 +3355,1214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K97"/>
+  <dimension ref="B1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C70"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="104" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="104" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" style="104"/>
-    <col min="11" max="11" width="10" style="104" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="104"/>
+    <col min="1" max="1" width="5.5" style="102" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="102" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="102" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="102"/>
+    <col min="5" max="5" width="17.1640625" style="102" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="102" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="102" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="102"/>
+    <col min="11" max="11" width="10" style="102" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="102"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="105"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+    </row>
+    <row r="3" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="107"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="107"/>
-      <c r="C12" s="108">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106">
         <v>12</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="107"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="107"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="107"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="107"/>
-      <c r="C29" s="108">
+      <c r="B29" s="105"/>
+      <c r="C29" s="106">
         <v>98300</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="107"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="107"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="107"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="107"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="107"/>
-      <c r="C41" s="108" t="s">
+      <c r="B41" s="105"/>
+      <c r="C41" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="107"/>
-      <c r="C42" s="108" t="s">
+      <c r="B42" s="105"/>
+      <c r="C42" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="107"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="107"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="107"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="107"/>
-      <c r="C47" s="108">
+      <c r="B47" s="105"/>
+      <c r="C47" s="106">
         <v>74052</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="107"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="107"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="107"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="107"/>
-      <c r="C54" s="108">
+      <c r="B54" s="105"/>
+      <c r="C54" s="106">
         <v>3120</v>
       </c>
-      <c r="D54" s="108" t="s">
+      <c r="D54" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="107"/>
-      <c r="C55" s="108">
+      <c r="B55" s="105"/>
+      <c r="C55" s="106">
         <v>520</v>
       </c>
-      <c r="D55" s="108" t="s">
+      <c r="D55" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="107"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="108"/>
-      <c r="K57" s="108"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="107"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="108"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108"/>
-      <c r="K60" s="108"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="107"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="107"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="108"/>
-      <c r="K62" s="108"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="107"/>
+      <c r="B63" s="105"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="107"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="107"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="107"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="107"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="107"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="107"/>
-      <c r="C69" s="112" t="s">
+      <c r="B64" s="105"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="105"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="105"/>
+    </row>
+    <row r="67" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="105"/>
+      <c r="G67" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="136" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="105"/>
+      <c r="C68" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="102">
+        <f>G76</f>
+        <v>7546</v>
+      </c>
+      <c r="H68" s="122">
+        <v>9.4</v>
+      </c>
+      <c r="I68" s="137"/>
+    </row>
+    <row r="69" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="105"/>
+      <c r="C69" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="104">
-        <v>9.4</v>
-      </c>
-      <c r="F69" s="112" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="107"/>
-      <c r="C70" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="104">
-        <f>1/E69</f>
-        <v>0.10638297872340426</v>
-      </c>
-      <c r="F70" s="112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="107"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="107"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="107"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="107"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="107"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="107"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="107"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="107"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="107"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="107"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="107"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="107"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="107"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="107"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="107"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="107"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="107"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="107"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="107"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="107"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="107"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="107"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="107"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="107"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="107"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="107"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="107"/>
+      <c r="F69" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="102">
+        <f>G78</f>
+        <v>17292.2</v>
+      </c>
+      <c r="H69" s="122">
+        <v>2.1</v>
+      </c>
+      <c r="I69" s="137"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="105"/>
+      <c r="C70" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" s="102">
+        <f>((H69*G69)+(H68*G68))/(G68+G69)</f>
+        <v>4.3177855078065246</v>
+      </c>
+      <c r="I70" s="102">
+        <f>1/H70</f>
+        <v>0.23160020297256714</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="105"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="105"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="105"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" s="105"/>
+    </row>
+    <row r="75" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="105"/>
+    </row>
+    <row r="76" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="105"/>
+      <c r="F76" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="122">
+        <v>7546</v>
+      </c>
+      <c r="H76" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="J76" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="L76" s="136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="105"/>
+      <c r="F77" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="122">
+        <v>68900</v>
+      </c>
+      <c r="H77" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="105"/>
+      <c r="F78" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="122">
+        <v>17292.2</v>
+      </c>
+      <c r="H78" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="L78" s="136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="105"/>
+      <c r="F79" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="122">
+        <v>1469</v>
+      </c>
+      <c r="H79" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="J79" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="L79" s="136" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="106"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="138"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="106"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="138"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="106"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="138"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="106"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="138"/>
+    </row>
+    <row r="84" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="106"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="138"/>
+    </row>
+    <row r="85" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="122">
+        <f>G76+G78</f>
+        <v>24838.2</v>
+      </c>
+      <c r="F85" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" s="121"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+    </row>
+    <row r="86" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121">
+        <f>E85*1000000</f>
+        <v>24838200000</v>
+      </c>
+      <c r="F86" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="121"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
+    </row>
+    <row r="87" spans="2:9" s="119" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="121"/>
+      <c r="D87" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E87" s="123">
+        <f>G77+G79</f>
+        <v>70369</v>
+      </c>
+      <c r="F87" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="121"/>
+      <c r="H87" s="121"/>
+      <c r="I87" s="121"/>
+    </row>
+    <row r="88" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="124">
+        <f>E87*1000000</f>
+        <v>70369000000</v>
+      </c>
+      <c r="F88" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="121"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+    </row>
+    <row r="89" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="121"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="121"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
+    </row>
+    <row r="90" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="125">
+        <f>E88/E86</f>
+        <v>2.8330957959916581</v>
+      </c>
+      <c r="F90" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" s="121"/>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+    </row>
+    <row r="91" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="121"/>
+      <c r="I91" s="121"/>
+    </row>
+    <row r="92" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="121"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="121"/>
+      <c r="I92" s="121"/>
+    </row>
+    <row r="93" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="121"/>
+    </row>
+    <row r="94" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="121"/>
+      <c r="D94" s="121" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.freight_tonne_kms</v>
+      </c>
+      <c r="E94" s="121">
+        <f>I70*E90</f>
+        <v>0.65614556139239466</v>
+      </c>
+      <c r="F94" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" s="121"/>
+      <c r="H94" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="I94" s="121"/>
+    </row>
+    <row r="95" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="121"/>
+      <c r="D95" s="121"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="121"/>
+    </row>
+    <row r="96" spans="2:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="121"/>
+    </row>
+    <row r="97" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="121"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="121"/>
+      <c r="I97" s="121"/>
+    </row>
+    <row r="98" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="135"/>
+    </row>
+    <row r="105" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="135"/>
+    </row>
+    <row r="111" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:9" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="2:2" s="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="105"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="105"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="105"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="105"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="105"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="105"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="105"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="105"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="105"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="105"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="105"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="105"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="105"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="105"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="105"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="105"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="105"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
